--- a/medicine/Enfance/Dans_le_piège_de_Magister/Dans_le_piège_de_Magister.xlsx
+++ b/medicine/Enfance/Dans_le_piège_de_Magister/Dans_le_piège_de_Magister.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dans_le_pi%C3%A8ge_de_Magister</t>
+          <t>Dans_le_piège_de_Magister</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dans le piège de Magister est le sixième tome de la série Tara Duncan de Sophie Audouin-Mamikonian. Le grand format est sorti le 2 octobre 2008 chez XO éditions et le format poche, le 1er octobre 2009 chez Pocket.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dans_le_pi%C3%A8ge_de_Magister</t>
+          <t>Dans_le_piège_de_Magister</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tara Duncan, héritière d'Omois, se fait capturer par des trolls, qui pensent qu'elle est une trafiquante de bang bang (une drogue d'AutreMonde). Fabrice la rejoint à ce moment-là. Tara, se servant de sa magie surpuissante, réussit à contraindre les trolls à la laisser partir. Ceux-ci, conscients de leur erreur, lui donnent des informations sur la personne qui leur avait dit qu'elle était trafiquante.
 Tara se rend en Krasalvie pour guérir Selenba, la vampyre alliée de Magister, de son empoisonnement par sang humain. Elle rencontre A'rno, un elfe, qui lui demande de guérir également celle qui aime, Kyla, qui n'est rien d'autre que la fille du président des Vampyrs. Aidée par Satila, la sœur de Selenba, Tara réussit à pénétrer dans la cellule où Selenba était retenue et la guérit, ainsi que tous les autres vampyrs infectés. Mais Selenba rejoint Magister le jour même.
